--- a/exercisesLifeContingencies/test1_2020_21/makeham_125.xlsx
+++ b/exercisesLifeContingencies/test1_2020_21/makeham_125.xlsx
@@ -476,16 +476,16 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>46.28596597436862</v>
+        <v>18.19989416913526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004628596597436863</v>
+        <v>0.0001819989416913526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995371403402563</v>
+        <v>0.9998180010583086</v>
       </c>
       <c r="F2" t="n">
-        <v>65.88495753533554</v>
+        <v>88.67250827743936</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99953.71403402563</v>
+        <v>99981.80010583086</v>
       </c>
       <c r="C3" t="n">
-        <v>48.98423668463084</v>
+        <v>18.22156497652657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004900692001095219</v>
+        <v>0.0001822488188574223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995099307998905</v>
+        <v>0.9998177511811426</v>
       </c>
       <c r="F3" t="n">
-        <v>64.9152356090316</v>
+        <v>87.68855850175596</v>
       </c>
     </row>
     <row r="4">
@@ -513,19 +513,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99904.729797341</v>
+        <v>99963.57854085433</v>
       </c>
       <c r="C4" t="n">
-        <v>51.88238739780459</v>
+        <v>18.24632007446554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005193186298891872</v>
+        <v>0.0001825296807177468</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994806813701108</v>
+        <v>0.9998174703192823</v>
       </c>
       <c r="F4" t="n">
-        <v>63.94681901007346</v>
+        <v>86.70445141002453</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99852.84740994319</v>
+        <v>99945.33222077986</v>
       </c>
       <c r="C5" t="n">
-        <v>54.99503534525562</v>
+        <v>18.27454118515901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000550760812252804</v>
+        <v>0.000182845369354423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9994492391877472</v>
+        <v>0.9998171546306456</v>
       </c>
       <c r="F5" t="n">
-        <v>62.97978524517265</v>
+        <v>85.72018915362219</v>
       </c>
     </row>
     <row r="6">
@@ -553,19 +553,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99797.85237459793</v>
+        <v>99927.0576795947</v>
       </c>
       <c r="C6" t="n">
-        <v>58.3378380841192</v>
+        <v>18.30665727838757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005845600551116492</v>
+        <v>0.000183200203263123</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994154399448884</v>
+        <v>0.9998167997967369</v>
       </c>
       <c r="F6" t="n">
-        <v>62.01421562534781</v>
+        <v>84.73577412022341</v>
       </c>
     </row>
     <row r="7">
@@ -573,19 +573,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99739.51453651382</v>
+        <v>99908.75102231631</v>
       </c>
       <c r="C7" t="n">
-        <v>61.92756304422883</v>
+        <v>18.34315041823982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006208929663634732</v>
+        <v>0.0001835990364261741</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993791070336365</v>
+        <v>0.9998164009635738</v>
       </c>
       <c r="F7" t="n">
-        <v>61.05019541096938</v>
+        <v>83.75120895882984</v>
       </c>
     </row>
     <row r="8">
@@ -593,19 +593,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99677.58697346959</v>
+        <v>99890.40787189807</v>
       </c>
       <c r="C8" t="n">
-        <v>65.78216100506052</v>
+        <v>18.38456233316899</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0006599493727970085</v>
+        <v>0.0001840473247115559</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999340050627203</v>
+        <v>0.9998159526752884</v>
       </c>
       <c r="F8" t="n">
-        <v>60.08781395850355</v>
+        <v>82.76649660737353</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99611.80481246453</v>
+        <v>99872.0233095649</v>
       </c>
       <c r="C9" t="n">
-        <v>69.92084360380376</v>
+        <v>18.4315017985749</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007019333073569056</v>
+        <v>0.0001845512005043126</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9992980666926431</v>
+        <v>0.9998154487994957</v>
       </c>
       <c r="F9" t="n">
-        <v>59.12716486856021</v>
+        <v>81.78164032314788</v>
       </c>
     </row>
     <row r="10">
@@ -633,19 +633,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99541.88396886073</v>
+        <v>99853.59180776632</v>
       </c>
       <c r="C10" t="n">
-        <v>74.36416495394062</v>
+        <v>18.48465293241153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007470640698060693</v>
+        <v>0.0001851175565922292</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9992529359301939</v>
+        <v>0.9998148824434078</v>
       </c>
       <c r="F10" t="n">
-        <v>58.16834613479978</v>
+        <v>80.79664371634271</v>
       </c>
     </row>
     <row r="11">
@@ -653,19 +653,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99467.51980390679</v>
+        <v>99835.10715483391</v>
       </c>
       <c r="C11" t="n">
-        <v>79.13410742738209</v>
+        <v>18.54478451649824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0007955773661934007</v>
+        <v>0.0001857541404521879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992044226338066</v>
+        <v>0.9998142458595478</v>
       </c>
       <c r="F11" t="n">
-        <v>57.21146029320087</v>
+        <v>79.81151078698582</v>
       </c>
     </row>
     <row r="12">
@@ -673,19 +673,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99388.38569647941</v>
+        <v>99816.56237031741</v>
       </c>
       <c r="C12" t="n">
-        <v>84.2541716187915</v>
+        <v>18.61276047021536</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008477265329179806</v>
+        <v>0.0001864696602269511</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999152273467082</v>
+        <v>0.999813530339773</v>
       </c>
       <c r="F12" t="n">
-        <v>56.25661457113542</v>
+        <v>78.82624596562047</v>
       </c>
     </row>
     <row r="13">
@@ -693,19 +693,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99304.13152486063</v>
+        <v>99797.94960984719</v>
       </c>
       <c r="C13" t="n">
-        <v>89.74947046970127</v>
+        <v>18.68955161891759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009037838516037233</v>
+        <v>0.0001872739038425442</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990962161483963</v>
+        <v>0.9998127260961575</v>
       </c>
       <c r="F13" t="n">
-        <v>55.30392103563819</v>
+        <v>77.84085415807722</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99214.38205439092</v>
+        <v>99779.26005822828</v>
       </c>
       <c r="C14" t="n">
-        <v>95.64682747863584</v>
+        <v>18.77624891671036</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000964041961438622</v>
+        <v>0.0001881778728941574</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990359580385614</v>
+        <v>0.9998118221271058</v>
       </c>
       <c r="F14" t="n">
-        <v>54.35349674019598</v>
+        <v>76.85534079473092</v>
       </c>
     </row>
     <row r="15">
@@ -733,19 +733,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99118.73522691229</v>
+        <v>99760.48380931157</v>
       </c>
       <c r="C15" t="n">
-        <v>101.9748788619895</v>
+        <v>18.87407830310057</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00102881537610966</v>
+        <v>0.0001891939331326586</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9989711846238903</v>
+        <v>0.9998108060668673</v>
       </c>
       <c r="F15" t="n">
-        <v>53.4054638693168</v>
+        <v>75.86971188466691</v>
       </c>
     </row>
     <row r="16">
@@ -753,19 +753,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99016.7603480503</v>
+        <v>99741.60973100847</v>
       </c>
       <c r="C16" t="n">
-        <v>108.7641794565027</v>
+        <v>18.98441739480372</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001098442112973497</v>
+        <v>0.0001903359836080698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9989015578870265</v>
+        <v>0.9998096640163919</v>
       </c>
       <c r="F16" t="n">
-        <v>52.45994988007141</v>
+        <v>74.88397407521737</v>
       </c>
     </row>
     <row r="17">
@@ -773,19 +773,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98907.9961685938</v>
+        <v>99722.62531361367</v>
       </c>
       <c r="C17" t="n">
-        <v>116.0473120652111</v>
+        <v>19.1088142390943</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00117328544263906</v>
+        <v>0.0001916196467852682</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9988267145573609</v>
+        <v>0.9998083803532147</v>
       </c>
       <c r="F17" t="n">
-        <v>51.51708763972911</v>
+        <v>73.89813471736741</v>
       </c>
     </row>
     <row r="18">
@@ -793,19 +793,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98791.94885652859</v>
+        <v>99703.51649937457</v>
       </c>
       <c r="C18" t="n">
-        <v>123.8589998443516</v>
+        <v>19.24900838234597</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001253735767721587</v>
+        <v>0.0001930624822291671</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9987462642322784</v>
+        <v>0.9998069375177708</v>
       </c>
       <c r="F18" t="n">
-        <v>50.5770155585374</v>
+        <v>72.91220193757242</v>
       </c>
     </row>
     <row r="19">
@@ -813,19 +813,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98668.08985668424</v>
+        <v>99684.26749099222</v>
       </c>
       <c r="C19" t="n">
-        <v>132.2362212037681</v>
+        <v>19.40695453887302</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00134021264013362</v>
+        <v>0.0001946842267825932</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9986597873598664</v>
+        <v>0.9998053157732174</v>
       </c>
       <c r="F19" t="n">
-        <v>49.63987771661991</v>
+        <v>71.92618471657219</v>
       </c>
     </row>
     <row r="20">
@@ -833,19 +833,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98535.85363548047</v>
+        <v>99664.86053645334</v>
       </c>
       <c r="C20" t="n">
-        <v>141.2183265481449</v>
+        <v>19.58484917987025</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001433166926939733</v>
+        <v>0.000196507064520568</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9985668330730603</v>
+        <v>0.9998034929354794</v>
       </c>
       <c r="F20" t="n">
-        <v>48.70582398389132</v>
+        <v>70.94009297583447</v>
       </c>
     </row>
     <row r="21">
@@ -853,19 +853,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98394.63530893232</v>
+        <v>99645.27568727348</v>
       </c>
       <c r="C21" t="n">
-        <v>150.8471560146982</v>
+        <v>19.78516040123635</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001533083135488833</v>
+        <v>0.0001985559301710405</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9984669168645112</v>
+        <v>0.999801444069829</v>
       </c>
       <c r="F21" t="n">
-        <v>47.77501013180991</v>
+        <v>69.95393767231037</v>
       </c>
     </row>
     <row r="22">
@@ -873,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98243.78815291762</v>
+        <v>99625.49052687224</v>
       </c>
       <c r="C22" t="n">
-        <v>161.1671571644356</v>
+        <v>20.01066147287705</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001640481909284452</v>
+        <v>0.0002008588501501984</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983595180907155</v>
+        <v>0.9997991411498498</v>
       </c>
       <c r="F22" t="n">
-        <v>46.84759793571106</v>
+        <v>68.96773090223654</v>
       </c>
     </row>
     <row r="23">
@@ -893,19 +893,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98082.62099575318</v>
+        <v>99605.47986539936</v>
       </c>
       <c r="C23" t="n">
-        <v>172.2255013516919</v>
+        <v>20.26446852108569</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00175592270682845</v>
+        <v>0.0002034473258747393</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9982440772931716</v>
+        <v>0.9997965526741253</v>
       </c>
       <c r="F23" t="n">
-        <v>45.92375526638661</v>
+        <v>67.98148601477405</v>
       </c>
     </row>
     <row r="24">
@@ -913,19 +913,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>97910.39549440148</v>
+        <v>99585.21539687828</v>
       </c>
       <c r="C24" t="n">
-        <v>184.0721972291555</v>
+        <v>20.55008285027804</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001880006676509449</v>
+        <v>0.000206356764589799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9981199933234906</v>
+        <v>0.9997936432354102</v>
       </c>
       <c r="F24" t="n">
-        <v>45.00365616949835</v>
+        <v>66.99521773633184</v>
       </c>
     </row>
     <row r="25">
@@ -933,19 +933,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>97726.32329717233</v>
+        <v>99564.665314028</v>
       </c>
       <c r="C25" t="n">
-        <v>196.7601995363588</v>
+        <v>20.87143847152451</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002013379741485188</v>
+        <v>0.0002096269635989412</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9979866202585148</v>
+        <v>0.9997903730364011</v>
       </c>
       <c r="F25" t="n">
-        <v>44.08748093133801</v>
+        <v>66.0089423064825</v>
       </c>
     </row>
     <row r="26">
@@ -953,19 +953,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97529.56309763597</v>
+        <v>99543.79387555647</v>
       </c>
       <c r="C26" t="n">
-        <v>210.3455109642099</v>
+        <v>21.23295547435152</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002156735909435326</v>
+        <v>0.0002133026545170225</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9978432640905647</v>
+        <v>0.999786697345483</v>
       </c>
       <c r="F26" t="n">
-        <v>43.17541612937381</v>
+        <v>65.02267762644021</v>
       </c>
     </row>
     <row r="27">
@@ -973,19 +973,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>97319.21758667176</v>
+        <v>99522.56092008212</v>
       </c>
       <c r="C27" t="n">
-        <v>224.8872744818051</v>
+        <v>21.63959995402304</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002310820823045789</v>
+        <v>0.00021743411497821</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9976891791769542</v>
+        <v>0.9997825658850218</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2676546659542</v>
+        <v>64.03644342113502</v>
       </c>
     </row>
     <row r="28">
@@ -993,19 +993,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>97094.33031218995</v>
+        <v>99500.92132012809</v>
       </c>
       <c r="C28" t="n">
-        <v>240.4478530476344</v>
+        <v>22.09695129243355</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002476435568117274</v>
+        <v>0.0002220778561571324</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9975235644318827</v>
+        <v>0.9997779221438429</v>
       </c>
       <c r="F28" t="n">
-        <v>41.36439578347488</v>
+        <v>63.05026141598265</v>
       </c>
     </row>
     <row r="29">
@@ -1013,19 +1013,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>96853.88245914232</v>
+        <v>99478.82436883566</v>
       </c>
       <c r="C29" t="n">
-        <v>257.0928931002621</v>
+        <v>22.61127768599464</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002654440757279053</v>
+        <v>0.0002272973954955404</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9973455592427209</v>
+        <v>0.9997727026045045</v>
       </c>
       <c r="F29" t="n">
-        <v>40.46584505925761</v>
+        <v>62.06415552951492</v>
       </c>
     </row>
     <row r="30">
@@ -1033,19 +1033,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>96596.78956604206</v>
+        <v>99456.21309114966</v>
       </c>
       <c r="C30" t="n">
-        <v>274.8913676269592</v>
+        <v>23.18962091953724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002845760908430806</v>
+        <v>0.0002331641251842598</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9971542390915692</v>
+        <v>0.9997668358748157</v>
       </c>
       <c r="F30" t="n">
-        <v>39.57221437833789</v>
+        <v>61.07815208310284</v>
       </c>
     </row>
     <row r="31">
@@ -1053,19 +1053,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>96321.8981984151</v>
+        <v>99433.02347023012</v>
       </c>
       <c r="C31" t="n">
-        <v>293.9155939364999</v>
+        <v>23.83989150374487</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003051389138231664</v>
+        <v>0.0002397582882600613</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9969486108617683</v>
+        <v>0.9997602417117399</v>
       </c>
       <c r="F31" t="n">
-        <v>38.68372188231741</v>
+        <v>60.09228002906875</v>
       </c>
     </row>
     <row r="32">
@@ -1073,19 +1073,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>96027.9826044786</v>
+        <v>99409.18357872638</v>
       </c>
       <c r="C32" t="n">
-        <v>314.2412205078043</v>
+        <v>24.57097542447678</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003272392192201989</v>
+        <v>0.0002471700756401241</v>
       </c>
       <c r="E32" t="n">
-        <v>0.996727607807798</v>
+        <v>0.9997528299243599</v>
       </c>
       <c r="F32" t="n">
-        <v>37.80059189240575</v>
+        <v>59.10657119854834</v>
       </c>
     </row>
     <row r="33">
@@ -1093,19 +1093,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>95713.7413839708</v>
+        <v>99384.61260330191</v>
       </c>
       <c r="C33" t="n">
-        <v>335.947176444464</v>
+        <v>25.39285389797537</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003509915834308042</v>
+        <v>0.0002555008590648944</v>
       </c>
       <c r="E33" t="n">
-        <v>0.996490084165692</v>
+        <v>0.9997444991409351</v>
       </c>
       <c r="F33" t="n">
-        <v>36.92305480475717</v>
+        <v>58.12106057052367</v>
       </c>
     </row>
     <row r="34">
@@ -1113,19 +1113,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>95377.79420752634</v>
+        <v>99359.21974940393</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1155761295339</v>
+        <v>26.31673768707882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.003765190620241832</v>
+        <v>0.0002648645767695523</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9962348093797582</v>
+        <v>0.9997351354232304</v>
       </c>
       <c r="F34" t="n">
-        <v>36.05134695620404</v>
+        <v>57.13578656350353</v>
       </c>
     </row>
     <row r="35">
@@ -1133,19 +1133,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>95018.6786313968</v>
+        <v>99332.90301171684</v>
       </c>
       <c r="C35" t="n">
-        <v>383.831570643729</v>
+        <v>27.35521771164463</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004039538080009675</v>
+        <v>0.0002753892907813027</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9959604619199903</v>
+        <v>0.9997246107092187</v>
       </c>
       <c r="F35" t="n">
-        <v>35.18571045849905</v>
+        <v>56.15079135137848</v>
       </c>
     </row>
     <row r="36">
@@ -1153,19 +1153,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>94634.84706075308</v>
+        <v>99305.54779400519</v>
       </c>
       <c r="C36" t="n">
-        <v>410.183136378647</v>
+        <v>28.52243388266508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004334377336873807</v>
+        <v>0.0002872189370711764</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9956656226631262</v>
+        <v>0.9997127810629288</v>
       </c>
       <c r="F36" t="n">
-        <v>34.32639299920874</v>
+        <v>55.16612120501767</v>
       </c>
     </row>
     <row r="37">
@@ -1173,19 +1173,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>94224.66392437443</v>
+        <v>99277.02536012253</v>
       </c>
       <c r="C37" t="n">
-        <v>438.2607900462339</v>
+        <v>29.83426430566329</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004651232191159482</v>
+        <v>0.0003005152924097088</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9953487678088405</v>
+        <v>0.9996994847075903</v>
       </c>
       <c r="F37" t="n">
-        <v>33.47364760744941</v>
+        <v>54.18182686120587</v>
       </c>
     </row>
     <row r="38">
@@ -1193,19 +1193,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>93786.4031343282</v>
+        <v>99247.19109581686</v>
       </c>
       <c r="C38" t="n">
-        <v>468.1572179593772</v>
+        <v>31.30853723542767</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004991738698933212</v>
+        <v>0.000315460184713956</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9950082613010668</v>
+        <v>0.999684539815286</v>
       </c>
       <c r="F38" t="n">
-        <v>32.62773238272807</v>
+        <v>53.19796392053526</v>
       </c>
     </row>
     <row r="39">
@@ -1213,19 +1213,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>93318.24591636882</v>
+        <v>99215.88255858143</v>
       </c>
       <c r="C39" t="n">
-        <v>499.9668060438583</v>
+        <v>32.96526842259364</v>
       </c>
       <c r="D39" t="n">
-        <v>0.005357653277065721</v>
+        <v>0.0003322579769738931</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9946423467229343</v>
+        <v>0.9996677420230261</v>
       </c>
       <c r="F39" t="n">
-        <v>31.78891018524613</v>
+        <v>52.21459327586717</v>
       </c>
     </row>
     <row r="40">
@@ -1233,19 +1233,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92818.27911032496</v>
+        <v>99182.91729015885</v>
       </c>
       <c r="C40" t="n">
-        <v>533.7850555516319</v>
+        <v>34.82692677349393</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005750861367696425</v>
+        <v>0.0003511383585502736</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9942491386323036</v>
+        <v>0.9996488616414497</v>
       </c>
       <c r="F40" t="n">
-        <v>30.95744828614452</v>
+        <v>51.23178157295786</v>
       </c>
     </row>
     <row r="41">
@@ -1253,19 +1253,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>92284.49405477333</v>
+        <v>99148.09036338536</v>
       </c>
       <c r="C41" t="n">
-        <v>569.7078679013216</v>
+        <v>36.91873154800621</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00617338669661216</v>
+        <v>0.0003723594817882647</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9938266133033878</v>
+        <v>0.9996276405182117</v>
       </c>
       <c r="F41" t="n">
-        <v>30.1336179763173</v>
+        <v>50.24960170479755</v>
       </c>
     </row>
     <row r="42">
@@ -1273,19 +1273,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>91714.78618687201</v>
+        <v>99111.17163183735</v>
       </c>
       <c r="C42" t="n">
-        <v>607.8306805015958</v>
+        <v>39.26898464682095</v>
       </c>
       <c r="D42" t="n">
-        <v>0.006627401161499957</v>
+        <v>0.0003962114865586619</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9933725988385</v>
+        <v>0.9996037885134413</v>
       </c>
       <c r="F42" t="n">
-        <v>29.31769413259914</v>
+        <v>49.26813334113803</v>
       </c>
     </row>
     <row r="43">
@@ -1293,19 +1293,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91106.95550637042</v>
+        <v>99071.90264719052</v>
       </c>
       <c r="C43" t="n">
-        <v>648.2474338598136</v>
+        <v>41.90944188613658</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007115235387428642</v>
+        <v>0.0004230204605576438</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9928847646125714</v>
+        <v>0.9995769795394424</v>
       </c>
       <c r="F43" t="n">
-        <v>28.50995474034032</v>
+        <v>48.28746349457464</v>
       </c>
     </row>
     <row r="44">
@@ -1313,19 +1313,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90458.70807251061</v>
+        <v>99029.99320530439</v>
       </c>
       <c r="C44" t="n">
-        <v>691.049348795891</v>
+        <v>44.87572752502707</v>
       </c>
       <c r="D44" t="n">
-        <v>0.007639389988213785</v>
+        <v>0.0004531528890645564</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9923606100117862</v>
+        <v>0.9995468471109354</v>
       </c>
       <c r="F44" t="n">
-        <v>27.71068037162394</v>
+        <v>47.30768712440021</v>
       </c>
     </row>
     <row r="45">
@@ -1333,19 +1333,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89767.65872371472</v>
+        <v>98985.11747777936</v>
       </c>
       <c r="C45" t="n">
-        <v>736.3234912419982</v>
+        <v>48.20779669229405</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008202547573489039</v>
+        <v>0.0004870206544242972</v>
       </c>
       <c r="E45" t="n">
-        <v>0.991797452426511</v>
+        <v>0.9995129793455757</v>
       </c>
       <c r="F45" t="n">
-        <v>26.92015361865357</v>
+        <v>46.32890777925211</v>
       </c>
     </row>
     <row r="46">
@@ -1353,19 +1353,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89031.33523247272</v>
+        <v>98936.90968108707</v>
       </c>
       <c r="C46" t="n">
-        <v>784.1511010063172</v>
+        <v>51.95045075065403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008807585542312646</v>
+        <v>0.0005250866528792031</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9911924144576874</v>
+        <v>0.9994749133471208</v>
       </c>
       <c r="F46" t="n">
-        <v>26.13865848214731</v>
+        <v>45.35123827932507</v>
       </c>
     </row>
     <row r="47">
@@ -1373,19 +1373,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88247.18413146641</v>
+        <v>98884.95923033642</v>
       </c>
       <c r="C47" t="n">
-        <v>834.6056601295493</v>
+        <v>56.15391102886068</v>
       </c>
       <c r="D47" t="n">
-        <v>0.009457589704915614</v>
+        <v>0.0005678711046243068</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9905424102950844</v>
+        <v>0.9994321288953757</v>
       </c>
       <c r="F47" t="n">
-        <v>25.36647971491491</v>
+        <v>44.37480143861109</v>
       </c>
     </row>
     <row r="48">
@@ -1393,19 +1393,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87412.57847133686</v>
+        <v>98828.80531930756</v>
       </c>
       <c r="C48" t="n">
-        <v>887.7506762133822</v>
+        <v>60.87445673322438</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01015586877470365</v>
+        <v>0.0006159586421847774</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9898441312252964</v>
+        <v>0.9993840413578152</v>
       </c>
       <c r="F48" t="n">
-        <v>24.6039021211693</v>
+        <v>43.39973082724866</v>
       </c>
     </row>
     <row r="49">
@@ -1413,19 +1413,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86524.82779512348</v>
+        <v>98767.93086257434</v>
       </c>
       <c r="C49" t="n">
-        <v>943.6371565280082</v>
+        <v>66.17513320392935</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01090596977277303</v>
+        <v>0.0006700062725421008</v>
       </c>
       <c r="E49" t="n">
-        <v>0.989094030227227</v>
+        <v>0.9993299937274579</v>
       </c>
       <c r="F49" t="n">
-        <v>23.85120981253064</v>
+        <v>42.42617157360533</v>
       </c>
     </row>
     <row r="50">
@@ -1433,19 +1433,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85581.19063859546</v>
+        <v>98701.75572937042</v>
       </c>
       <c r="C50" t="n">
-        <v>1002.300750028557</v>
+        <v>72.12653698585055</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01171169438692687</v>
+        <v>0.0007307523199852062</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9882883056130731</v>
+        <v>0.9992692476800148</v>
       </c>
       <c r="F50" t="n">
-        <v>23.10868542211917</v>
+        <v>41.45428120517279</v>
       </c>
     </row>
     <row r="51">
@@ -1453,19 +1453,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>84578.8898885669</v>
+        <v>98629.62919238457</v>
       </c>
       <c r="C51" t="n">
-        <v>1063.758536883758</v>
+        <v>78.80768440782023</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01257711632637015</v>
+        <v>0.0007990264695622029</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9874228836736298</v>
+        <v>0.9992009735304378</v>
       </c>
       <c r="F51" t="n">
-        <v>22.37660927859927</v>
+        <v>40.484230526713</v>
       </c>
     </row>
     <row r="52">
@@ -1473,19 +1473,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>83515.13135168314</v>
+        <v>98550.82150797675</v>
       </c>
       <c r="C52" t="n">
-        <v>1128.005449047429</v>
+        <v>86.30697047126084</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01350659971182211</v>
+        <v>0.0008757610454244169</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9864934002881779</v>
+        <v>0.9991242389545756</v>
       </c>
       <c r="F52" t="n">
-        <v>21.65525854252947</v>
+        <v>39.51620453334655</v>
       </c>
     </row>
     <row r="53">
@@ -1493,19 +1493,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>82387.12590263571</v>
+        <v>98464.5145375055</v>
       </c>
       <c r="C53" t="n">
-        <v>1195.010311133158</v>
+        <v>94.72322478580604</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01450481853858343</v>
+        <v>0.0009620036744275584</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9854951814614166</v>
+        <v>0.9990379963255724</v>
       </c>
       <c r="F53" t="n">
-        <v>20.94490630788763</v>
+        <v>38.55040335541333</v>
       </c>
     </row>
     <row r="54">
@@ -1513,19 +1513,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>81192.11559150256</v>
+        <v>98369.7913127197</v>
       </c>
       <c r="C54" t="n">
-        <v>1264.711498778952</v>
+        <v>104.1668709915898</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01557677724696849</v>
+        <v>0.001058931503274629</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9844232227530315</v>
+        <v>0.9989410684967254</v>
       </c>
       <c r="F54" t="n">
-        <v>20.24582067217147</v>
+        <v>37.58704323094958</v>
       </c>
     </row>
     <row r="55">
@@ -1533,19 +1533,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>79927.40409272361</v>
+        <v>98265.62444172811</v>
       </c>
       <c r="C55" t="n">
-        <v>1337.012222253824</v>
+        <v>114.7611954909471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01672783243032339</v>
+        <v>0.001167867157441216</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9832721675696766</v>
+        <v>0.9988321328425588</v>
       </c>
       <c r="F55" t="n">
-        <v>19.55826377901818</v>
+        <v>36.6263575005087</v>
       </c>
     </row>
     <row r="56">
@@ -1553,19 +1553,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>78590.39187046979</v>
+        <v>98150.86324623716</v>
       </c>
       <c r="C56" t="n">
-        <v>1411.775456734167</v>
+        <v>126.6437302674287</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0179637157053627</v>
+        <v>0.001290296652304623</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9820362842946373</v>
+        <v>0.9987097033476954</v>
       </c>
       <c r="F56" t="n">
-        <v>18.88249083783577</v>
+        <v>35.66859761779724</v>
       </c>
     </row>
     <row r="57">
@@ -1573,19 +1573,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77178.61641373562</v>
+        <v>98024.21951596973</v>
       </c>
       <c r="C57" t="n">
-        <v>1488.818557964678</v>
+        <v>139.9677529627238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0192905577625736</v>
+        <v>0.001427889491534495</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9807094422374264</v>
+        <v>0.9985721105084655</v>
       </c>
       <c r="F57" t="n">
-        <v>18.21874912548601</v>
+        <v>34.7140341681986</v>
       </c>
     </row>
     <row r="58">
@@ -1593,19 +1593,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>75689.79785577094</v>
+        <v>97884.25176300701</v>
       </c>
       <c r="C58" t="n">
-        <v>1567.90762341504</v>
+        <v>154.9039050402617</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02071491360569799</v>
+        <v>0.001582521215111377</v>
       </c>
       <c r="E58" t="n">
-        <v>0.979285086394302</v>
+        <v>0.9984174787848886</v>
       </c>
       <c r="F58" t="n">
-        <v>17.56727697559617</v>
+        <v>33.7629578857125</v>
       </c>
     </row>
     <row r="59">
@@ -1613,19 +1613,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74121.8902323559</v>
+        <v>97729.34785796674</v>
       </c>
       <c r="C59" t="n">
-        <v>1648.751685016245</v>
+        <v>171.6419255728901</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02224378897850243</v>
+        <v>0.001756298689543523</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9777562110214976</v>
+        <v>0.9982437013104565</v>
       </c>
       <c r="F59" t="n">
-        <v>16.92830276159659</v>
+        <v>32.81568065714831</v>
       </c>
     </row>
     <row r="60">
@@ -1633,19 +1633,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72473.13854733965</v>
+        <v>97557.70593239386</v>
       </c>
       <c r="C60" t="n">
-        <v>1730.996850502635</v>
+        <v>190.3924936874711</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02388466796386834</v>
+        <v>0.00195158846620902</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9761153320361317</v>
+        <v>0.998048411533791</v>
       </c>
       <c r="F60" t="n">
-        <v>16.30204388007245</v>
+        <v>31.87253650058148</v>
       </c>
     </row>
     <row r="61">
@@ -1653,19 +1653,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70742.14169683702</v>
+        <v>97367.31343870639</v>
       </c>
       <c r="C61" t="n">
-        <v>1814.220546552639</v>
+        <v>211.3891666511444</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02564554172430089</v>
+        <v>0.002171048570465239</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9743544582756991</v>
+        <v>0.9978289514295348</v>
       </c>
       <c r="F61" t="n">
-        <v>15.68870574147229</v>
+        <v>30.93388250312275</v>
       </c>
     </row>
     <row r="62">
@@ -1673,19 +1673,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68927.92115028438</v>
+        <v>97155.92427205524</v>
       </c>
       <c r="C62" t="n">
-        <v>1897.926058352906</v>
+        <v>234.8903925924962</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02753493833384058</v>
+        <v>0.002417664124472307</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9724650616661594</v>
+        <v>0.9975823358755277</v>
       </c>
       <c r="F62" t="n">
-        <v>15.08848077562196</v>
+        <v>30.00009970097761</v>
       </c>
     </row>
     <row r="63">
@@ -1693,19 +1693,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>67029.99509193147</v>
+        <v>96921.03387946275</v>
       </c>
       <c r="C63" t="n">
-        <v>1981.537606632735</v>
+        <v>261.181566430167</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02956195362859659</v>
+        <v>0.002694787250773545</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9704380463714034</v>
+        <v>0.9973052127492265</v>
       </c>
       <c r="F63" t="n">
-        <v>14.50154745984086</v>
+        <v>29.07159388261106</v>
       </c>
     </row>
     <row r="64">
@@ -1713,19 +1713,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65048.45748529874</v>
+        <v>96659.85231303258</v>
       </c>
       <c r="C64" t="n">
-        <v>2064.396253917507</v>
+        <v>290.5770841448523</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03173628297618081</v>
+        <v>0.003006181751693759</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9682637170238192</v>
+        <v>0.9969938182483062</v>
       </c>
       <c r="F64" t="n">
-        <v>13.92806937773566</v>
+        <v>28.1487962936131</v>
       </c>
     </row>
     <row r="65">
@@ -1733,19 +1733,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>62984.06123138123</v>
+        <v>96369.27522888772</v>
       </c>
       <c r="C65" t="n">
-        <v>2145.756985439502</v>
+        <v>323.4223333875843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03406825383261247</v>
+        <v>0.003356073111678182</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9659317461673875</v>
+        <v>0.9966439268883218</v>
       </c>
       <c r="F65" t="n">
-        <v>13.36819431694695</v>
+        <v>27.23216421962511</v>
       </c>
     </row>
     <row r="66">
@@ -1753,19 +1753,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>60838.30424594173</v>
+        <v>96045.85289550014</v>
       </c>
       <c r="C66" t="n">
-        <v>2224.7873647892</v>
+        <v>360.0955367530988</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03656885891814787</v>
+        <v>0.003749204425774533</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9634311410818521</v>
+        <v>0.9962507955742255</v>
       </c>
       <c r="F66" t="n">
-        <v>12.82205341423472</v>
+        <v>26.32218142149033</v>
       </c>
     </row>
     <row r="67">
@@ -1773,19 +1773,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>58613.51688115253</v>
+        <v>95685.75735874704</v>
       </c>
       <c r="C67" t="n">
-        <v>2300.568217038743</v>
+        <v>401.0093369308525</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03924978980025173</v>
+        <v>0.004190898917457275</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9607502101997483</v>
+        <v>0.9958091010825427</v>
       </c>
       <c r="F67" t="n">
-        <v>12.28976035630122</v>
+        <v>25.41935839469697</v>
       </c>
     </row>
     <row r="68">
@@ -1793,19 +1793,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>56312.94866411378</v>
+        <v>95284.74802181618</v>
       </c>
       <c r="C68" t="n">
-        <v>2372.096838679116</v>
+        <v>446.6119793269498</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04212347062178912</v>
+        <v>0.004687129772591669</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9578765293782109</v>
+        <v>0.9953128702274083</v>
       </c>
       <c r="F68" t="n">
-        <v>11.77141064465656</v>
+        <v>24.52423242326985</v>
       </c>
     </row>
     <row r="69">
@@ -1813,19 +1813,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>53940.85182543467</v>
+        <v>94838.13604248923</v>
       </c>
       <c r="C69" t="n">
-        <v>2438.293268995448</v>
+        <v>497.3879064848838</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04520309165465797</v>
+        <v>0.005244598083012142</v>
       </c>
       <c r="E69" t="n">
-        <v>0.954796908345342</v>
+        <v>0.9947554019169879</v>
       </c>
       <c r="F69" t="n">
-        <v>11.26708093262625</v>
+        <v>23.63736739662656</v>
       </c>
     </row>
     <row r="70">
@@ -1833,19 +1833,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51502.55855643922</v>
+        <v>94340.74813600435</v>
       </c>
       <c r="C70" t="n">
-        <v>2498.010174816019</v>
+        <v>553.8575285278932</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04850264229258761</v>
+        <v>0.005870819762097246</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9514973577074124</v>
+        <v>0.9941291802379028</v>
       </c>
       <c r="F70" t="n">
-        <v>10.77682844227633</v>
+        <v>22.75935335665297</v>
       </c>
     </row>
     <row r="71">
@@ -1853,19 +1853,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>49004.54838162321</v>
+        <v>93786.89060747645</v>
       </c>
       <c r="C71" t="n">
-        <v>2550.046891893148</v>
+        <v>616.5758737390515</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05203694302077111</v>
+        <v>0.006574222364611582</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9479630569792289</v>
+        <v>0.9934257776353884</v>
       </c>
       <c r="F71" t="n">
-        <v>10.30069046858717</v>
+        <v>21.89080574148938</v>
       </c>
     </row>
     <row r="72">
@@ -1873,19 +1873,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46454.50148973006</v>
+        <v>93170.3147337374</v>
       </c>
       <c r="C72" t="n">
-        <v>2593.16812223235</v>
+        <v>686.1297522864462</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05582167581338993</v>
+        <v>0.007364252812145922</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9441783241866101</v>
+        <v>0.9926357471878541</v>
       </c>
       <c r="F72" t="n">
-        <v>9.838683977641459</v>
+        <v>21.03236429238332</v>
       </c>
     </row>
     <row r="73">
@@ -1893,19 +1893,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>43861.3333674977</v>
+        <v>92484.18498145095</v>
       </c>
       <c r="C73" t="n">
-        <v>2626.127697262551</v>
+        <v>763.1329833623481</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05987341231191512</v>
+        <v>0.008251497091263826</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9401265876880849</v>
+        <v>0.9917485029087362</v>
       </c>
       <c r="F73" t="n">
-        <v>9.390805304905237</v>
+        <v>20.18469159059775</v>
       </c>
     </row>
     <row r="74">
@@ -1913,19 +1913,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>41235.20567023515</v>
+        <v>91721.0519980886</v>
       </c>
       <c r="C74" t="n">
-        <v>2647.697671263339</v>
+        <v>848.2191416794942</v>
       </c>
       <c r="D74" t="n">
-        <v>0.06420963902635579</v>
+        <v>0.009247813050565212</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9357903609736442</v>
+        <v>0.9907521869494348</v>
       </c>
       <c r="F74" t="n">
-        <v>8.957029958879355</v>
+        <v>19.3484711929121</v>
       </c>
     </row>
     <row r="75">
@@ -1933,19 +1933,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38587.50799897181</v>
+        <v>90872.83285640911</v>
       </c>
       <c r="C75" t="n">
-        <v>2656.702797932547</v>
+        <v>942.0311745146566</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06884877867737238</v>
+        <v>0.0103664774708101</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9311512213226276</v>
+        <v>0.9896335225291899</v>
       </c>
       <c r="F75" t="n">
-        <v>8.537312534487135</v>
+        <v>18.52440533686561</v>
       </c>
     </row>
     <row r="76">
@@ -1953,19 +1953,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>35930.80520103926</v>
+        <v>89930.80168189445</v>
       </c>
       <c r="C76" t="n">
-        <v>2652.060157296962</v>
+        <v>1045.207128200876</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0738102066585542</v>
+        <v>0.01162234861308153</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9261897933414458</v>
+        <v>0.9883776513869185</v>
       </c>
       <c r="F76" t="n">
-        <v>8.131586739553173</v>
+        <v>17.71321219071171</v>
       </c>
     </row>
     <row r="77">
@@ -1973,19 +1973,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>33278.7450437423</v>
+        <v>88885.59455369358</v>
       </c>
       <c r="C77" t="n">
-        <v>2632.823335931791</v>
+        <v>1158.361108605604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.07911426144438893</v>
+        <v>0.01303204545598069</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9208857385556111</v>
+        <v>0.9869679545440193</v>
       </c>
       <c r="F77" t="n">
-        <v>7.739765536629855</v>
+        <v>16.91562262821064</v>
       </c>
     </row>
     <row r="78">
@@ -1993,19 +1993,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30645.92170781051</v>
+        <v>87727.23344508797</v>
       </c>
       <c r="C78" t="n">
-        <v>2598.230122163598</v>
+        <v>1282.058492824249</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08478224760005848</v>
+        <v>0.014614144804039</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9152177523999415</v>
+        <v>0.985385855195961</v>
       </c>
       <c r="F78" t="n">
-        <v>7.361741401257085</v>
+        <v>16.13237651499504</v>
       </c>
     </row>
     <row r="79">
@@ -2013,19 +2013,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28047.69158564692</v>
+        <v>86445.17495226373</v>
       </c>
       <c r="C79" t="n">
-        <v>2547.75216956537</v>
+        <v>1416.784323286142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09083642986395191</v>
+        <v>0.01638939737317335</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9091635701360481</v>
+        <v>0.9836106026268266</v>
       </c>
       <c r="F79" t="n">
-        <v>6.997386696514349</v>
+        <v>15.36421850137708</v>
       </c>
     </row>
     <row r="80">
@@ -2033,19 +2033,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25499.93941608155</v>
+        <v>85028.39062897758</v>
       </c>
       <c r="C80" t="n">
-        <v>2481.144527793682</v>
+        <v>1562.903771726962</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0973000165729393</v>
+        <v>0.01838096381885801</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9026999834270607</v>
+        <v>0.981619036181142</v>
       </c>
       <c r="F80" t="n">
-        <v>6.646554162461738</v>
+        <v>14.61189332616053</v>
       </c>
     </row>
     <row r="81">
@@ -2053,19 +2053,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23018.79488828786</v>
+        <v>83465.48685725061</v>
       </c>
       <c r="C81" t="n">
-        <v>2398.492374577971</v>
+        <v>1720.613588840395</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1041971304848084</v>
+        <v>0.02061467144836915</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8958028695151916</v>
+        <v>0.9793853285516309</v>
       </c>
       <c r="F81" t="n">
-        <v>6.309077517789042</v>
+        <v>13.87614064725249</v>
       </c>
     </row>
     <row r="82">
@@ -2073,19 +2073,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20620.30251370989</v>
+        <v>81744.87326841021</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.251756899409</v>
+        <v>1889.883596594437</v>
       </c>
       <c r="D82" t="n">
-        <v>0.111552764823408</v>
+        <v>0.02311929202445495</v>
       </c>
       <c r="E82" t="n">
-        <v>0.888447235176592</v>
+        <v>0.976880707975545</v>
       </c>
       <c r="F82" t="n">
-        <v>5.984772169721794</v>
+        <v>13.1576894275452</v>
       </c>
     </row>
     <row r="83">
@@ -2093,19 +2093,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>18320.05075681048</v>
+        <v>79854.98967181578</v>
       </c>
       <c r="C83" t="n">
-        <v>2187.280729461302</v>
+        <v>2070.387587736755</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1193927221325072</v>
+        <v>0.02592684059249817</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8806072778674928</v>
+        <v>0.9740731594075018</v>
       </c>
       <c r="F83" t="n">
-        <v>5.673436026993337</v>
+        <v>12.45725191848304</v>
       </c>
     </row>
     <row r="84">
@@ -2113,19 +2113,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16132.77002734918</v>
+        <v>77784.60208407903</v>
       </c>
       <c r="C84" t="n">
-        <v>2060.857044853963</v>
+        <v>2261.423538502106</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1277435332779356</v>
+        <v>0.02907289460782592</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8722564667220644</v>
+        <v>0.9709271053921741</v>
       </c>
       <c r="F84" t="n">
-        <v>5.374850409505469</v>
+        <v>11.77551729867627</v>
       </c>
     </row>
     <row r="85">
@@ -2133,19 +2133,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14071.91298249522</v>
+        <v>75523.17854557693</v>
       </c>
       <c r="C85" t="n">
-        <v>1922.678591712388</v>
+        <v>2461.823897118482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1366323536895167</v>
+        <v>0.03259693175695477</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8633676463104833</v>
+        <v>0.9674030682430452</v>
       </c>
       <c r="F85" t="n">
-        <v>5.088781047190322</v>
+        <v>11.11314504050425</v>
       </c>
     </row>
     <row r="86">
@@ -2153,19 +2153,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12149.23439078283</v>
+        <v>73061.35464845845</v>
       </c>
       <c r="C86" t="n">
-        <v>1774.843183928566</v>
+        <v>2669.857973555801</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1460868336917652</v>
+        <v>0.03654268369922886</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8539131663082348</v>
+        <v>0.9634573163007711</v>
       </c>
       <c r="F86" t="n">
-        <v>4.81497915957359</v>
+        <v>10.47075809339676</v>
       </c>
     </row>
     <row r="87">
@@ -2173,19 +2173,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10374.39120685426</v>
+        <v>70391.49667490265</v>
       </c>
       <c r="C87" t="n">
-        <v>1619.805151383193</v>
+        <v>2883.130217613493</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1561349595447107</v>
+        <v>0.04095850143560653</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8438650404552893</v>
+        <v>0.9590414985643935</v>
       </c>
       <c r="F87" t="n">
-        <v>4.553182606644601</v>
+        <v>9.848935987823358</v>
       </c>
     </row>
     <row r="88">
@@ -2193,19 +2193,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8754.586055471073</v>
+        <v>67508.36645728916</v>
       </c>
       <c r="C88" t="n">
-        <v>1460.307515484275</v>
+        <v>3098.48051038387</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1668048616155499</v>
+        <v>0.04589772605954257</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8331951383844501</v>
+        <v>0.9541022739404574</v>
       </c>
       <c r="F88" t="n">
-        <v>4.303117100878824</v>
+        <v>9.248207978297028</v>
       </c>
     </row>
     <row r="89">
@@ -2213,19 +2213,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7294.278539986798</v>
+        <v>64409.88594690529</v>
       </c>
       <c r="C89" t="n">
-        <v>1299.290344690341</v>
+        <v>3311.89554334488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1781245859433129</v>
+        <v>0.0514190561690322</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8218754140566871</v>
+        <v>0.9485809438309678</v>
       </c>
       <c r="F89" t="n">
-        <v>4.064497469647984</v>
+        <v>8.669046356180241</v>
       </c>
     </row>
     <row r="90">
@@ -2233,19 +2233,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5994.988195296456</v>
+        <v>61097.99040356041</v>
       </c>
       <c r="C90" t="n">
-        <v>1139.778098708036</v>
+        <v>3518.443870605216</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1901218253611046</v>
+        <v>0.05758690011513345</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8098781746388954</v>
+        <v>0.9424130998848665</v>
       </c>
       <c r="F90" t="n">
-        <v>3.837028956802607</v>
+        <v>8.111860072993329</v>
       </c>
     </row>
     <row r="91">
@@ -2253,19 +2253,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4855.21009658842</v>
+        <v>57579.5465329552</v>
       </c>
       <c r="C91" t="n">
-        <v>984.7512212632259</v>
+        <v>3712.251101477344</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2028236063265676</v>
+        <v>0.0644716974169407</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7971763936734324</v>
+        <v>0.9355283025830593</v>
       </c>
       <c r="F91" t="n">
-        <v>3.620408551928818</v>
+        <v>7.576988821487371</v>
       </c>
     </row>
     <row r="92">
@@ -2273,19 +2273,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3870.458875325194</v>
+        <v>53867.29543147785</v>
       </c>
       <c r="C92" t="n">
-        <v>837.0096747404634</v>
+        <v>3886.535544493899</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2162559277083491</v>
+        <v>0.07215018896647196</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7837440722916509</v>
+        <v>0.927849811033528</v>
       </c>
       <c r="F92" t="n">
-        <v>3.414326335668076</v>
+        <v>7.064697724213481</v>
       </c>
     </row>
     <row r="93">
@@ -2293,19 +2293,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3033.449200584731</v>
+        <v>49980.75988698396</v>
       </c>
       <c r="C93" t="n">
-        <v>699.0381898211847</v>
+        <v>4033.727713002287</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2304433480166529</v>
+        <v>0.08070560996117937</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7695566519833471</v>
+        <v>0.9192943900388206</v>
       </c>
       <c r="F93" t="n">
-        <v>3.218466829543793</v>
+        <v>6.575172777047928</v>
       </c>
     </row>
     <row r="94">
@@ -2313,19 +2313,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2334.411010763547</v>
+        <v>45947.03217398167</v>
       </c>
       <c r="C94" t="n">
-        <v>572.8843465232333</v>
+        <v>4145.698376718861</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2454085179866644</v>
+        <v>0.09022777273232541</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7545914820133356</v>
+        <v>0.9097722272676746</v>
       </c>
       <c r="F94" t="n">
-        <v>3.032510338956332</v>
+        <v>6.108517187613182</v>
       </c>
     </row>
     <row r="95">
@@ -2333,19 +2333,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1761.526664240313</v>
+        <v>41801.33379726281</v>
       </c>
       <c r="C95" t="n">
-        <v>460.0608361056541</v>
+        <v>4214.117810263728</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2611716560669053</v>
+        <v>0.1008129987120093</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7388283439330947</v>
+        <v>0.8991870012879907</v>
       </c>
       <c r="F95" t="n">
-        <v>2.856134278377099</v>
+        <v>5.664748735468967</v>
       </c>
     </row>
     <row r="96">
@@ -2353,19 +2353,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1301.465828134659</v>
+        <v>37587.21598699908</v>
       </c>
       <c r="C96" t="n">
-        <v>361.4820885739402</v>
+        <v>4230.961730538575</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2777499652772586</v>
+        <v>0.1125638496876706</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7222500347227414</v>
+        <v>0.8874361503123294</v>
       </c>
       <c r="F96" t="n">
-        <v>2.689014468278792</v>
+        <v>5.243798262286943</v>
       </c>
     </row>
     <row r="97">
@@ -2373,19 +2373,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>939.983739560719</v>
+        <v>33356.2542564605</v>
       </c>
       <c r="C97" t="n">
-        <v>277.4427722837186</v>
+        <v>4189.165217169309</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2951569911340971</v>
+        <v>0.1255885983168492</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7048430088659029</v>
+        <v>0.8744114016831508</v>
       </c>
       <c r="F97" t="n">
-        <v>2.530826393963574</v>
+        <v>4.845509376215274</v>
       </c>
     </row>
     <row r="98">
@@ -2393,19 +2393,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>662.5409672770004</v>
+        <v>29167.08903929119</v>
       </c>
       <c r="C98" t="n">
-        <v>207.641612512259</v>
+        <v>4083.403165630768</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3134019219455249</v>
+        <v>0.1400003668562875</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6865980780544751</v>
+        <v>0.8599996331437125</v>
       </c>
       <c r="F98" t="n">
-        <v>2.381246417171942</v>
+        <v>4.46963942584763</v>
       </c>
     </row>
     <row r="99">
@@ -2413,19 +2413,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>454.8993547647414</v>
+        <v>25083.68587366043</v>
       </c>
       <c r="C99" t="n">
-        <v>151.2489564220377</v>
+        <v>3910.944245826742</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3324888348110728</v>
+        <v>0.1559158516625142</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6675111651889272</v>
+        <v>0.8440841483374858</v>
       </c>
       <c r="F99" t="n">
-        <v>2.239952932147129</v>
+        <v>4.115861766518071</v>
       </c>
     </row>
     <row r="100">
@@ -2433,19 +2433,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>303.6503983427037</v>
+        <v>21172.74162783369</v>
       </c>
       <c r="C100" t="n">
-        <v>107.0112263423681</v>
+        <v>3672.486987446188</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3524158931666999</v>
+        <v>0.1734535400280112</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6475841068333001</v>
+        <v>0.8265464599719888</v>
       </c>
       <c r="F100" t="n">
-        <v>2.106627458665304</v>
+        <v>3.783769306223673</v>
       </c>
     </row>
     <row r="101">
@@ -2453,19 +2453,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>196.6391720003356</v>
+        <v>17500.2546403875</v>
       </c>
       <c r="C101" t="n">
-        <v>73.38072562353391</v>
+        <v>3372.847116663265</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3731745047391101</v>
+        <v>0.192731316542065</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6268254952608899</v>
+        <v>0.807268683457935</v>
       </c>
       <c r="F101" t="n">
-        <v>1.980955665391087</v>
+        <v>3.472879281746555</v>
       </c>
     </row>
     <row r="102">
@@ -2473,19 +2473,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>123.2584463768017</v>
+        <v>14127.40752372423</v>
       </c>
       <c r="C102" t="n">
-        <v>48.65608094513433</v>
+        <v>3021.33470249683</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3947484523404786</v>
+        <v>0.2138633501881422</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6052515476595214</v>
+        <v>0.7861366498118578</v>
       </c>
       <c r="F102" t="n">
-        <v>1.862628317750064</v>
+        <v>3.182639179080041</v>
       </c>
     </row>
     <row r="103">
@@ -2493,19 +2493,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.60236543166734</v>
+        <v>11106.0728212274</v>
       </c>
       <c r="C103" t="n">
-        <v>31.11761750054707</v>
+        <v>2631.652293983442</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4171130140511364</v>
+        <v>0.2369561532996144</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5828869859488636</v>
+        <v>0.7630438467003856</v>
       </c>
       <c r="F103" t="n">
-        <v>1.75134214529361</v>
+        <v>2.912433677684487</v>
       </c>
     </row>
     <row r="104">
@@ -2513,19 +2513,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>43.48474793112027</v>
+        <v>8474.420527243963</v>
       </c>
       <c r="C104" t="n">
-        <v>19.14346860729952</v>
+        <v>2221.177082566719</v>
       </c>
       <c r="D104" t="n">
-        <v>0.440234093977565</v>
+        <v>0.2621037126286069</v>
       </c>
       <c r="E104" t="n">
-        <v>0.559765906022435</v>
+        <v>0.7378962873713931</v>
       </c>
       <c r="F104" t="n">
-        <v>1.646800624235226</v>
+        <v>2.661592466955239</v>
       </c>
     </row>
     <row r="105">
@@ -2533,19 +2533,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.34127932382074</v>
+        <v>6253.243444677244</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29599396184089</v>
+        <v>1809.573689606288</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4640673898674859</v>
+        <v>0.2893816154153723</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5359326101325141</v>
+        <v>0.7106183845846277</v>
       </c>
       <c r="F105" t="n">
-        <v>1.548714671431352</v>
+        <v>2.429398756911324</v>
       </c>
     </row>
     <row r="106">
@@ -2553,19 +2553,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>13.04528536197985</v>
+        <v>4443.669755070956</v>
       </c>
       <c r="C106" t="n">
-        <v>6.373373689843154</v>
+        <v>1416.820263240043</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4885576292886769</v>
+        <v>0.3188401346934521</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5114423707113231</v>
+        <v>0.6811598653065479</v>
       </c>
       <c r="F106" t="n">
-        <v>1.456803246535134</v>
+        <v>2.215098284487953</v>
       </c>
     </row>
     <row r="107">
@@ -2573,19 +2573,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.671911672136696</v>
+        <v>3026.849491830913</v>
       </c>
       <c r="C107" t="n">
-        <v>3.426946777922375</v>
+        <v>1060.899559954957</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5136379116399313</v>
+        <v>0.3504963041004158</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4863620883600687</v>
+        <v>0.6495036958995842</v>
       </c>
       <c r="F107" t="n">
-        <v>1.370793859344103</v>
+        <v>2.017908602433723</v>
       </c>
     </row>
     <row r="108">
@@ -2593,19 +2593,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.244964894214321</v>
+        <v>1965.949931875957</v>
       </c>
       <c r="C108" t="n">
-        <v>1.749779819667622</v>
+        <v>755.5639227056188</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5392291986848392</v>
+        <v>0.3843251094317756</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4607708013151608</v>
+        <v>0.6156748905682244</v>
       </c>
       <c r="F108" t="n">
-        <v>1.290422979472505</v>
+        <v>1.837028429578633</v>
       </c>
     </row>
     <row r="109">
@@ -2613,19 +2613,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.495185074546699</v>
+        <v>1210.386009170338</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8451384133459581</v>
+        <v>508.6647901568315</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5652400012100054</v>
+        <v>0.4202500576700297</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4347599987899946</v>
+        <v>0.5797499423299703</v>
       </c>
       <c r="F109" t="n">
-        <v>1.215436345394348</v>
+        <v>1.671646838390064</v>
       </c>
     </row>
     <row r="110">
@@ -2633,19 +2633,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6500466612007407</v>
+        <v>701.7212190135064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3845457068610646</v>
+        <v>321.4820385344316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5915663133331795</v>
+        <v>0.4581335576347221</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4084336866668205</v>
+        <v>0.5418664423652779</v>
       </c>
       <c r="F110" t="n">
-        <v>1.145589169623516</v>
+        <v>1.520952056814883</v>
       </c>
     </row>
     <row r="111">
@@ -2653,19 +2653,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2655009543396761</v>
+        <v>380.2391804790747</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1641039756042438</v>
+        <v>189.270804600729</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6180918483415045</v>
+        <v>0.4977677586046262</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3819081516584955</v>
+        <v>0.5022322413953738</v>
       </c>
       <c r="F111" t="n">
-        <v>1.080646236337884</v>
+        <v>1.38413966430246</v>
       </c>
     </row>
     <row r="112">
@@ -2673,19 +2673,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1013969787354323</v>
+        <v>190.9683758783458</v>
       </c>
       <c r="C112" t="n">
-        <v>0.06536947931166227</v>
+        <v>102.9065052821676</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6446886300451422</v>
+        <v>0.5388667354416998</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3553113699548578</v>
+        <v>0.4611332645583002</v>
       </c>
       <c r="F112" t="n">
-        <v>1.020381887153594</v>
+        <v>1.260419963971281</v>
       </c>
     </row>
     <row r="113">
@@ -2693,19 +2693,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.03602749942377004</v>
+        <v>88.06187059617812</v>
       </c>
       <c r="C113" t="n">
-        <v>0.02418230577424123</v>
+        <v>51.16933272479528</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6712179907297799</v>
+        <v>0.5810611605043059</v>
       </c>
       <c r="E113" t="n">
-        <v>0.3287820092702201</v>
+        <v>0.4189388394956941</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9645798900826302</v>
+        <v>1.149024311225205</v>
       </c>
     </row>
     <row r="114">
@@ -2713,19 +2713,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01184519364952881</v>
+        <v>36.89253787138285</v>
       </c>
       <c r="C114" t="n">
-        <v>0.008262401854711613</v>
+        <v>23.01713735123747</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6975320200898771</v>
+        <v>0.62389682790274</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3024679799101229</v>
+        <v>0.37610317209726</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9130331860731475</v>
+        <v>1.049210171123024</v>
       </c>
     </row>
     <row r="115">
@@ -2733,19 +2733,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.003582791794817194</v>
+        <v>13.87540052014539</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002592062078908941</v>
+        <v>9.252651817141242</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7234754982576922</v>
+        <v>0.6668385394502683</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2765245017423078</v>
+        <v>0.3331614605497317</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8655435071040529</v>
+        <v>0.9602646610515664</v>
       </c>
     </row>
     <row r="116">
@@ -2753,19 +2753,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.0009907297159082533</v>
+        <v>4.622748703004144</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0007419459219956255</v>
+        <v>3.278827127845893</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7488883295636743</v>
+        <v>0.709280849663126</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2511116704363257</v>
+        <v>0.290719150336874</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8219208598184247</v>
+        <v>0.881506313161518</v>
       </c>
     </row>
     <row r="117">
@@ -2773,19 +2773,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.0002487837939126278</v>
+        <v>1.343921575158251</v>
       </c>
       <c r="C117" t="n">
-        <v>0.00019246125055752</v>
+        <v>1.008703064910508</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7736084715594932</v>
+        <v>0.7505669107155528</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2263915284405068</v>
+        <v>0.2494330892844472</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7819828694503229</v>
+        <v>0.8122847694052602</v>
       </c>
     </row>
     <row r="118">
@@ -2793,19 +2793,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.632254335510787e-05</v>
+        <v>0.335218510247743</v>
       </c>
       <c r="C118" t="n">
-        <v>4.491583862725805e-05</v>
+        <v>0.2648280094777671</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7974753260709178</v>
+        <v>0.7900160682715467</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2025246739290822</v>
+        <v>0.2099839317284533</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7455539807198432</v>
+        <v>0.7519781168613864</v>
       </c>
     </row>
     <row r="119">
@@ -2813,19 +2813,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.140670472784982e-05</v>
+        <v>0.07039050076997588</v>
       </c>
       <c r="C119" t="n">
-        <v>9.357302310860072e-06</v>
+        <v>0.05821011948515054</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8203335261246775</v>
+        <v>0.8269598716930747</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1796664738753225</v>
+        <v>0.1730401283069253</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7124645158339008</v>
+        <v>0.6999876123247328</v>
       </c>
     </row>
     <row r="120">
@@ -2833,19 +2833,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.049402416989748e-06</v>
+        <v>0.01218038128482535</v>
       </c>
       <c r="C120" t="n">
-        <v>1.725672695183973e-06</v>
+        <v>0.0104846867831954</v>
       </c>
       <c r="D120" t="n">
-        <v>0.8420370157066159</v>
+        <v>0.8607847766028074</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1579629842933841</v>
+        <v>0.1392152233971926</v>
       </c>
       <c r="F120" t="n">
-        <v>0.6825495945411498</v>
+        <v>0.6557296812101878</v>
       </c>
     </row>
     <row r="121">
@@ -2853,19 +2853,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.237297218057748e-07</v>
+        <v>0.001695694501629945</v>
       </c>
       <c r="C121" t="n">
-        <v>2.792017605610935e-07</v>
+        <v>0.001510826737636262</v>
       </c>
       <c r="D121" t="n">
-        <v>0.8624532804825491</v>
+        <v>0.8909781426925759</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1375467195174509</v>
+        <v>0.1090218573074241</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6556479219340474</v>
+        <v>0.6186253730734472</v>
       </c>
     </row>
     <row r="122">
@@ -2873,19 +2873,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.452796124468132e-08</v>
+        <v>0.0001848677639936835</v>
       </c>
       <c r="C122" t="n">
-        <v>3.924995289504024e-08</v>
+        <v>0.0001695556151608555</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8814675497798249</v>
+        <v>0.9171724236717053</v>
       </c>
       <c r="E122" t="n">
-        <v>0.1185324502201751</v>
+        <v>0.08282757632829474</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6316003935251974</v>
+        <v>0.5880879853197035</v>
       </c>
     </row>
     <row r="123">
@@ -2893,19 +2893,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.278008349641075e-09</v>
+        <v>1.531214883282799e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>4.74485961021082e-09</v>
+        <v>1.438088125588234e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8989867571038398</v>
+        <v>0.9391811308058151</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1010132428961602</v>
+        <v>0.06081886919418489</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6102478121455216</v>
+        <v>0.5635103575958647</v>
       </c>
     </row>
     <row r="124">
@@ -2913,19 +2913,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.331487394302556e-10</v>
+        <v>9.312675769456566e-07</v>
       </c>
       <c r="C124" t="n">
-        <v>4.878007192503324e-10</v>
+        <v>8.912414773585837e-07</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9149430227887552</v>
+        <v>0.9570197646971139</v>
       </c>
       <c r="E124" t="n">
-        <v>0.08505697721124483</v>
+        <v>0.04298023530288608</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5914193919984768</v>
+        <v>0.544254167125112</v>
       </c>
     </row>
     <row r="125">
@@ -2933,19 +2933,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.534802017992316e-11</v>
+        <v>4.002609958707289e-08</v>
       </c>
       <c r="C125" t="n">
-        <v>4.214175248850279e-11</v>
+        <v>3.886157923333086e-08</v>
       </c>
       <c r="D125" t="n">
-        <v>0.929296412970199</v>
+        <v>0.9709059747076098</v>
       </c>
       <c r="E125" t="n">
-        <v>0.07070358702980095</v>
+        <v>0.02909402529239025</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5748017975225068</v>
+        <v>0.5296399452736438</v>
       </c>
     </row>
     <row r="126">
@@ -2953,19 +2953,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.206267691420367e-12</v>
+        <v>1.164520353742029e-09</v>
       </c>
       <c r="C126" t="n">
-        <v>3.020421959295569e-12</v>
+        <v>1.142669306205804e-09</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9420367386596877</v>
+        <v>0.9812360106321801</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05796326134031227</v>
+        <v>0.01876398936781987</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5579632613403123</v>
+        <v>0.5187639893678199</v>
       </c>
     </row>
     <row r="127">
@@ -2973,10 +2973,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>2.185104753622527e-11</v>
       </c>
       <c r="C127" t="n">
-        <v>1.858457321247984e-13</v>
+        <v>2.185104753622527e-11</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
